--- a/CommonModule/Assets/01_PJ/MasterData/OriginData/texts.xlsx
+++ b/CommonModule/Assets/01_PJ/MasterData/OriginData/texts.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -32,6 +32,60 @@
   </si>
   <si>
     <t xml:space="preserve">en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLATFORM_ITEM1_TEST_TITLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">課金テストアイテム1のタイトル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IAP test item1’s title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLATFORM_ITEM2_TEST_TITLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">課金テストアイテム2のタイトル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IAP test item2’s title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLATFORM_ITEM3_TEST_TITLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">課金テストアイテム3のタイトル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IAP test item3’s title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLATFORM_ITEM1_TEST_DESCRIPTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">課金テストアイテム1の説明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IAP test item1’s desciption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLATFORM_ITEM2_TEST_DESCRIPTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">課金テストアイテム2の説明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IAP test item2’s desciption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLATFORM_ITEM3_TEST_DESCRIPTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">課金テストアイテム3の説明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IAP test item3’s desciption</t>
   </si>
   <si>
     <t xml:space="preserve">TEST1</t>
@@ -104,7 +158,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="ヒラギノ角ゴ ProN W3"/>
@@ -146,6 +200,12 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -207,7 +267,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -233,6 +293,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -258,18 +322,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="35.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="39.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="250" min="5" style="1" width="7.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16380" style="2" width="9.7"/>
   </cols>
@@ -290,7 +354,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="n">
-        <v>99993</v>
+        <v>90001</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>4</v>
@@ -304,7 +368,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
-        <v>99994</v>
+        <v>90002</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
@@ -318,7 +382,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
-        <v>99995</v>
+        <v>90003</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>10</v>
@@ -332,21 +396,21 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
-        <v>99996</v>
+        <v>90004</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
-        <v>99997</v>
+        <v>90005</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>16</v>
@@ -354,13 +418,13 @@
       <c r="C6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
-        <v>99998</v>
+        <v>90006</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>19</v>
@@ -368,22 +432,106 @@
       <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
-        <v>99999</v>
+        <v>99993</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="n">
+        <v>99994</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="n">
+        <v>99995</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
+        <v>99996</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
+        <v>99997</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="n">
+        <v>99998</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="n">
+        <v>99999</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/CommonModule/Assets/01_PJ/MasterData/OriginData/texts.xlsx
+++ b/CommonModule/Assets/01_PJ/MasterData/OriginData/texts.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -34,6 +34,33 @@
     <t xml:space="preserve">en</t>
   </si>
   <si>
+    <t xml:space="preserve">DIALOG_OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">決定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIALOG_NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">キャンセル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDROID_BACK_KEY_NO_STACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">戻る機能は現在使えません</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back function is currently unavailable</t>
+  </si>
+  <si>
     <t xml:space="preserve">PLATFORM_ITEM1_TEST_TITLE</t>
   </si>
   <si>
@@ -86,69 +113,6 @@
   </si>
   <si>
     <t xml:space="preserve">IAP test item3’s desciption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A JA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A EN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB JA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB EN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCC JA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCC EN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DDDD JA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DDDD EN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EEEEE JA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EEEEE EN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FFFFFF JA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FFFFFF EN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GGGGGGG JA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GGGGGGG EN</t>
   </si>
 </sst>
 </file>
@@ -158,7 +122,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="ヒラギノ角ゴ ProN W3"/>
@@ -200,12 +164,6 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -267,7 +225,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -293,14 +251,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -322,10 +272,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -354,7 +304,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="n">
-        <v>90001</v>
+        <v>9001</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>4</v>
@@ -368,7 +318,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
-        <v>90002</v>
+        <v>9002</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
@@ -382,7 +332,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
-        <v>90003</v>
+        <v>9101</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>10</v>
@@ -396,12 +346,12 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
-        <v>90004</v>
+        <v>10001</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -410,12 +360,12 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
-        <v>90005</v>
+        <v>10002</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -424,12 +374,12 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
-        <v>90006</v>
+        <v>10003</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -438,7 +388,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
-        <v>99993</v>
+        <v>10004</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>22</v>
@@ -452,7 +402,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
-        <v>99994</v>
+        <v>10005</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>25</v>
@@ -466,7 +416,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
-        <v>99995</v>
+        <v>10006</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>28</v>
@@ -476,62 +426,6 @@
       </c>
       <c r="D10" s="6" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
-        <v>99996</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
-        <v>99997</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
-        <v>99998</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
-        <v>99999</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
